--- a/data/pca/factorExposure/factorExposure_2010-02-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01586782930726975</v>
+        <v>0.01704176850894183</v>
       </c>
       <c r="C2">
-        <v>0.001058546571577142</v>
+        <v>-0.0009208774067930605</v>
       </c>
       <c r="D2">
-        <v>-0.007239786871987336</v>
+        <v>-0.007019446118106551</v>
       </c>
       <c r="E2">
-        <v>-0.01191024956322143</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0001076431494314118</v>
+      </c>
+      <c r="F2">
+        <v>0.00903510219547681</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1265295443337116</v>
+        <v>0.09368693938465406</v>
       </c>
       <c r="C4">
-        <v>0.04711229579082753</v>
+        <v>-0.01554211277907474</v>
       </c>
       <c r="D4">
-        <v>-0.0362719090089301</v>
+        <v>-0.08334783309752956</v>
       </c>
       <c r="E4">
-        <v>0.0111845913494056</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02936929040912272</v>
+      </c>
+      <c r="F4">
+        <v>-0.02833307737382905</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1151744633862593</v>
+        <v>0.1565447608746292</v>
       </c>
       <c r="C6">
-        <v>-0.03247920763252959</v>
+        <v>-0.02474004145008063</v>
       </c>
       <c r="D6">
-        <v>-0.001406566809206127</v>
+        <v>0.02238531576618695</v>
       </c>
       <c r="E6">
-        <v>-0.02033909112647748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01124070911280716</v>
+      </c>
+      <c r="F6">
+        <v>-0.05135165926076433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.0733681342315459</v>
+        <v>0.0595735748474407</v>
       </c>
       <c r="C7">
-        <v>0.02769493365870565</v>
+        <v>0.0009061684080765394</v>
       </c>
       <c r="D7">
-        <v>-0.05135075732882965</v>
+        <v>-0.05110682455539314</v>
       </c>
       <c r="E7">
-        <v>-0.03582192489483558</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01342010542994441</v>
+      </c>
+      <c r="F7">
+        <v>-0.04481013926214618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05634705749686977</v>
+        <v>0.05865238146481265</v>
       </c>
       <c r="C8">
-        <v>0.0109986734743049</v>
+        <v>0.01356693190292266</v>
       </c>
       <c r="D8">
-        <v>-0.02316224581775695</v>
+        <v>-0.03144301637355245</v>
       </c>
       <c r="E8">
-        <v>-0.02252676048842557</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01575476839784461</v>
+      </c>
+      <c r="F8">
+        <v>0.03171747937477278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09721373458666449</v>
+        <v>0.07183553431545775</v>
       </c>
       <c r="C9">
-        <v>0.04834493002730361</v>
+        <v>-0.01146939382192727</v>
       </c>
       <c r="D9">
-        <v>-0.01330706090408281</v>
+        <v>-0.08420933578796616</v>
       </c>
       <c r="E9">
-        <v>-0.00596261259860219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.0241093565828209</v>
+      </c>
+      <c r="F9">
+        <v>-0.04805222044928902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06288173829178101</v>
+        <v>0.09557937623410002</v>
       </c>
       <c r="C10">
-        <v>-0.1785397157411602</v>
+        <v>-0.01855720551626134</v>
       </c>
       <c r="D10">
-        <v>0.07036819925739206</v>
+        <v>0.1700861207640409</v>
       </c>
       <c r="E10">
-        <v>-0.02459989107387581</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.03883431709091525</v>
+      </c>
+      <c r="F10">
+        <v>0.058778998957667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09937487596112048</v>
+        <v>0.08776288624439002</v>
       </c>
       <c r="C11">
-        <v>0.05159574172073359</v>
+        <v>-0.01105642499803359</v>
       </c>
       <c r="D11">
-        <v>-0.06045310833117112</v>
+        <v>-0.1175926311018039</v>
       </c>
       <c r="E11">
-        <v>-0.03807016914738318</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04762951260692039</v>
+      </c>
+      <c r="F11">
+        <v>-0.01838819023551625</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1082069310660788</v>
+        <v>0.09244810180847993</v>
       </c>
       <c r="C12">
-        <v>0.06047940155746299</v>
+        <v>-0.008478008596222933</v>
       </c>
       <c r="D12">
-        <v>-0.06998988522745837</v>
+        <v>-0.1288737667300822</v>
       </c>
       <c r="E12">
-        <v>-0.0377290704420733</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04843144094460625</v>
+      </c>
+      <c r="F12">
+        <v>-0.01672067201326445</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04107919301058805</v>
+        <v>0.04358198839752923</v>
       </c>
       <c r="C13">
-        <v>0.02626119719717316</v>
+        <v>-0.003900758138443473</v>
       </c>
       <c r="D13">
-        <v>0.01631336007769674</v>
+        <v>-0.04807385588714705</v>
       </c>
       <c r="E13">
-        <v>0.01188618241398133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01318338092591387</v>
+      </c>
+      <c r="F13">
+        <v>-0.006811338979485374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02588775963952982</v>
+        <v>0.02264062371363448</v>
       </c>
       <c r="C14">
-        <v>0.004266913446430451</v>
+        <v>-0.01396682823664886</v>
       </c>
       <c r="D14">
-        <v>-0.003411455691046273</v>
+        <v>-0.03308938344961463</v>
       </c>
       <c r="E14">
-        <v>-0.00929977249367394</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0173744876216626</v>
+      </c>
+      <c r="F14">
+        <v>-0.01670936930094957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02922777888000952</v>
+        <v>0.03114169113830841</v>
       </c>
       <c r="C15">
-        <v>0.02658883484250094</v>
+        <v>-0.005125451458651762</v>
       </c>
       <c r="D15">
-        <v>-0.001233662667042413</v>
+        <v>-0.04521348071106333</v>
       </c>
       <c r="E15">
-        <v>-0.01056382636032924</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007427327270481367</v>
+      </c>
+      <c r="F15">
+        <v>-0.02689870218513491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.1059062637321055</v>
+        <v>0.07305792189211884</v>
       </c>
       <c r="C16">
-        <v>0.04087577729917543</v>
+        <v>-0.002196076469451248</v>
       </c>
       <c r="D16">
-        <v>-0.06700887840989624</v>
+        <v>-0.1257498869467401</v>
       </c>
       <c r="E16">
-        <v>-0.05478026437711411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06350848552769993</v>
+      </c>
+      <c r="F16">
+        <v>-0.02119530514843484</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.0260741815764662</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003738401403918814</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02045564579653611</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.004650061352140919</v>
+      </c>
+      <c r="F18">
+        <v>0.01349872093176771</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05816182468177516</v>
+        <v>0.05998320171785339</v>
       </c>
       <c r="C20">
-        <v>0.01783938040567076</v>
+        <v>-0.0005143418294680378</v>
       </c>
       <c r="D20">
-        <v>-0.04503053642726532</v>
+        <v>-0.07653808914010819</v>
       </c>
       <c r="E20">
-        <v>0.00217708913890157</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.0560982889120796</v>
+      </c>
+      <c r="F20">
+        <v>-0.02359823228992844</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02062416795977151</v>
+        <v>0.03902978459561199</v>
       </c>
       <c r="C21">
-        <v>-0.004446632365931888</v>
+        <v>-0.006453447032498765</v>
       </c>
       <c r="D21">
-        <v>-0.001965826977554893</v>
+        <v>-0.03577239629665515</v>
       </c>
       <c r="E21">
-        <v>0.03167048690360313</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.008100838907610014</v>
+      </c>
+      <c r="F21">
+        <v>0.02269436057629273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.03643757286456724</v>
+        <v>0.04484963200481064</v>
       </c>
       <c r="C22">
-        <v>-0.03641909810895813</v>
+        <v>-0.0004410952157918772</v>
       </c>
       <c r="D22">
-        <v>0.03339088987053412</v>
+        <v>-0.002992310066184478</v>
       </c>
       <c r="E22">
-        <v>-0.03879868415048638</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02628963205730695</v>
+      </c>
+      <c r="F22">
+        <v>0.01460868726244688</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.03654748605674879</v>
+        <v>0.04488334466237531</v>
       </c>
       <c r="C23">
-        <v>-0.03634351804794974</v>
+        <v>-0.0004615569218713163</v>
       </c>
       <c r="D23">
-        <v>0.03290836054351309</v>
+        <v>-0.003084848841419371</v>
       </c>
       <c r="E23">
-        <v>-0.04057395374184947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02659926067918466</v>
+      </c>
+      <c r="F23">
+        <v>0.01408382673317125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.1049581909030138</v>
+        <v>0.07957109200942079</v>
       </c>
       <c r="C24">
-        <v>0.04301551998092978</v>
+        <v>-0.002722119107486971</v>
       </c>
       <c r="D24">
-        <v>-0.06341553680793398</v>
+        <v>-0.1207790611952227</v>
       </c>
       <c r="E24">
-        <v>-0.03476965924121848</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05104390101645334</v>
+      </c>
+      <c r="F24">
+        <v>-0.02118409468874627</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.1095313766704762</v>
+        <v>0.08506315216891457</v>
       </c>
       <c r="C25">
-        <v>0.03787807143559071</v>
+        <v>-0.0049447897662578</v>
       </c>
       <c r="D25">
-        <v>-0.06020486599646074</v>
+        <v>-0.1096638350673446</v>
       </c>
       <c r="E25">
-        <v>-0.04174632137796</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.03369728871399459</v>
+      </c>
+      <c r="F25">
+        <v>-0.02394747712581117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04706839664021312</v>
+        <v>0.05574297359206649</v>
       </c>
       <c r="C26">
-        <v>-0.01494306386334086</v>
+        <v>-0.01434045497286525</v>
       </c>
       <c r="D26">
-        <v>-0.02131799199707691</v>
+        <v>-0.0418646355575979</v>
       </c>
       <c r="E26">
-        <v>-0.01160499424361243</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02579209297478535</v>
+      </c>
+      <c r="F26">
+        <v>0.01112660466334413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.05685591292664482</v>
+        <v>0.1427807197026296</v>
       </c>
       <c r="C28">
-        <v>-0.260421030859837</v>
+        <v>-0.01797127606632053</v>
       </c>
       <c r="D28">
-        <v>0.171640441688815</v>
+        <v>0.2652249232469738</v>
       </c>
       <c r="E28">
-        <v>-0.04918300742661431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06810988539282664</v>
+      </c>
+      <c r="F28">
+        <v>-0.01761235365942978</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03112044026905959</v>
+        <v>0.02664918835742137</v>
       </c>
       <c r="C29">
-        <v>0.008762310279121686</v>
+        <v>-0.008117029052909033</v>
       </c>
       <c r="D29">
-        <v>0.003691396462838548</v>
+        <v>-0.03279374659401216</v>
       </c>
       <c r="E29">
-        <v>-0.008480852256361152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01130733141574047</v>
+      </c>
+      <c r="F29">
+        <v>0.01293403347202539</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1221505911975356</v>
+        <v>0.0614612082310366</v>
       </c>
       <c r="C30">
-        <v>0.06614744967639673</v>
+        <v>-0.004468551028340055</v>
       </c>
       <c r="D30">
-        <v>-0.03138350561028928</v>
+        <v>-0.08521680989309666</v>
       </c>
       <c r="E30">
-        <v>-0.01182836166517919</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02345332490936202</v>
+      </c>
+      <c r="F30">
+        <v>-0.09127112766069161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03587840150204143</v>
+        <v>0.04907414899088959</v>
       </c>
       <c r="C31">
-        <v>0.01386564085221253</v>
+        <v>-0.01507475620223459</v>
       </c>
       <c r="D31">
-        <v>-0.02719946642700787</v>
+        <v>-0.02588193842173425</v>
       </c>
       <c r="E31">
-        <v>-0.01850701397439333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02710593414631039</v>
+      </c>
+      <c r="F31">
+        <v>0.005415042484109134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.0623571124816086</v>
+        <v>0.0483318359129746</v>
       </c>
       <c r="C32">
-        <v>-0.0001818724880952861</v>
+        <v>0.001185667346210804</v>
       </c>
       <c r="D32">
-        <v>-0.03353224718697115</v>
+        <v>-0.03632304282793933</v>
       </c>
       <c r="E32">
-        <v>0.0104501529205885</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.02983447063382478</v>
+      </c>
+      <c r="F32">
+        <v>-0.001133691356716807</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1108555197652466</v>
+        <v>0.08945781910705283</v>
       </c>
       <c r="C33">
-        <v>0.04835014800731177</v>
+        <v>-0.008309599275542028</v>
       </c>
       <c r="D33">
-        <v>-0.03124392885234216</v>
+        <v>-0.09821352806357249</v>
       </c>
       <c r="E33">
-        <v>-0.07073844930854485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04615096617201347</v>
+      </c>
+      <c r="F33">
+        <v>-0.03729845915238578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.09207804923776659</v>
+        <v>0.06777816403198379</v>
       </c>
       <c r="C34">
-        <v>0.02844273329912034</v>
+        <v>-0.01155774197531395</v>
       </c>
       <c r="D34">
-        <v>-0.05389782639639921</v>
+        <v>-0.1053668669794574</v>
       </c>
       <c r="E34">
-        <v>-0.03394215226577862</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03636092450677923</v>
+      </c>
+      <c r="F34">
+        <v>-0.03346008789535136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01446496158867945</v>
+        <v>0.0244752582731039</v>
       </c>
       <c r="C35">
-        <v>0.01172840632172143</v>
+        <v>-0.002360050098681464</v>
       </c>
       <c r="D35">
-        <v>0.005792586689522446</v>
+        <v>-0.01263286742632017</v>
       </c>
       <c r="E35">
-        <v>-0.004356582748493639</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.011006399687629</v>
+      </c>
+      <c r="F35">
+        <v>-0.005827205164812099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02761125132441168</v>
+        <v>0.02484177772566714</v>
       </c>
       <c r="C36">
-        <v>0.01691228170037818</v>
+        <v>-0.007337005793981154</v>
       </c>
       <c r="D36">
-        <v>-0.0003687734353446147</v>
+        <v>-0.03939870181513946</v>
       </c>
       <c r="E36">
-        <v>-0.0009550893666958421</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01691854166586326</v>
+      </c>
+      <c r="F36">
+        <v>-0.01293209523991865</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.005708042661796772</v>
+        <v>0.001504628331408272</v>
       </c>
       <c r="C38">
-        <v>-9.069332032837716e-06</v>
+        <v>-0.0002222308167372148</v>
       </c>
       <c r="D38">
-        <v>0.0004637783502448017</v>
+        <v>-0.0007178383502637902</v>
       </c>
       <c r="E38">
-        <v>0.0007334186755601504</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001121224292537891</v>
+      </c>
+      <c r="F38">
+        <v>0.001066145238376555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1681414261241739</v>
+        <v>0.1071034087767351</v>
       </c>
       <c r="C39">
-        <v>0.09633745413165472</v>
+        <v>-0.01644836497075109</v>
       </c>
       <c r="D39">
-        <v>-0.09681704226622039</v>
+        <v>-0.1535919840909734</v>
       </c>
       <c r="E39">
-        <v>-0.06034760958066301</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06049030128262787</v>
+      </c>
+      <c r="F39">
+        <v>-0.02203904663297418</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.01003397488670863</v>
+        <v>0.0378301214221592</v>
       </c>
       <c r="C40">
-        <v>-0.001586236068269003</v>
+        <v>-0.007066930199567514</v>
       </c>
       <c r="D40">
-        <v>-0.009222481555605573</v>
+        <v>-0.03279009519944061</v>
       </c>
       <c r="E40">
-        <v>0.01839453751974069</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.001505734274850444</v>
+      </c>
+      <c r="F40">
+        <v>0.01520194970083268</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02021097757998102</v>
+        <v>0.02658608029949948</v>
       </c>
       <c r="C41">
-        <v>-0.02333119017324983</v>
+        <v>-0.006534577319043566</v>
       </c>
       <c r="D41">
-        <v>-0.01710771107369474</v>
+        <v>-0.01074544028221907</v>
       </c>
       <c r="E41">
-        <v>-0.00739334303593243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01237510012277122</v>
+      </c>
+      <c r="F41">
+        <v>0.008462206096493305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02832194104158133</v>
+        <v>0.04009816412757611</v>
       </c>
       <c r="C43">
-        <v>-0.0178847795193519</v>
+        <v>-0.00658821487220067</v>
       </c>
       <c r="D43">
-        <v>-0.02881717461952797</v>
+        <v>-0.02046280185758742</v>
       </c>
       <c r="E43">
-        <v>-0.02824136106743793</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02368648178428917</v>
+      </c>
+      <c r="F43">
+        <v>0.01412184685243168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1368698218179638</v>
+        <v>0.07673769209746907</v>
       </c>
       <c r="C44">
-        <v>0.06634437115850286</v>
+        <v>-0.02076372154169435</v>
       </c>
       <c r="D44">
-        <v>-0.03795170222535177</v>
+        <v>-0.09862811089778592</v>
       </c>
       <c r="E44">
-        <v>-0.02981690005433086</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07402508314531822</v>
+      </c>
+      <c r="F44">
+        <v>-0.1675102872281413</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01341447002011687</v>
+        <v>0.02354085957014496</v>
       </c>
       <c r="C46">
-        <v>-0.01645349170429004</v>
+        <v>-0.003819111399585761</v>
       </c>
       <c r="D46">
-        <v>-0.00743983504841548</v>
+        <v>-0.01148396021157381</v>
       </c>
       <c r="E46">
-        <v>-0.02257756293491512</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02247571704233592</v>
+      </c>
+      <c r="F46">
+        <v>-0.0007134214308360003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04590889326753548</v>
+        <v>0.05088432391406358</v>
       </c>
       <c r="C47">
-        <v>-0.004406916354454339</v>
+        <v>-0.003281601277194499</v>
       </c>
       <c r="D47">
-        <v>-0.01529884439051707</v>
+        <v>-0.01332507884842093</v>
       </c>
       <c r="E47">
-        <v>-0.006622909620826021</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02240686031990421</v>
+      </c>
+      <c r="F47">
+        <v>0.03967115452348203</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04614787801741928</v>
+        <v>0.04786624953374574</v>
       </c>
       <c r="C48">
-        <v>0.01891726969892234</v>
+        <v>-0.002525809465329155</v>
       </c>
       <c r="D48">
-        <v>0.001431878669515476</v>
+        <v>-0.05058258473128913</v>
       </c>
       <c r="E48">
-        <v>-0.01038173097343222</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005148441117012539</v>
+      </c>
+      <c r="F48">
+        <v>-0.00460032875205001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2191562833809223</v>
+        <v>0.2026558090654303</v>
       </c>
       <c r="C49">
-        <v>-0.05456484249540825</v>
+        <v>-0.01808496841432879</v>
       </c>
       <c r="D49">
-        <v>-0.0400203608687945</v>
+        <v>0.01226157769176025</v>
       </c>
       <c r="E49">
-        <v>0.006037979784473195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03272732584712036</v>
+      </c>
+      <c r="F49">
+        <v>-0.03009754396507012</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04327088295515844</v>
+        <v>0.04886520483929559</v>
       </c>
       <c r="C50">
-        <v>0.01074891461992015</v>
+        <v>-0.01112906404169661</v>
       </c>
       <c r="D50">
-        <v>-0.03575167605277096</v>
+        <v>-0.02547760621742055</v>
       </c>
       <c r="E50">
-        <v>-0.0112668209521206</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02939275083678113</v>
+      </c>
+      <c r="F50">
+        <v>-0.006961908665235386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.008136343160633734</v>
+        <v>0.002240370523884974</v>
       </c>
       <c r="C51">
-        <v>-0.0132426986995589</v>
+        <v>-0.000568473897285609</v>
       </c>
       <c r="D51">
-        <v>0.008213856752162942</v>
+        <v>0.002401909887883448</v>
       </c>
       <c r="E51">
-        <v>-0.01471012671650011</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-1.741379778874352e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.003861047908939439</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1392932715066775</v>
+        <v>0.1447515849400486</v>
       </c>
       <c r="C52">
-        <v>0.06835133752304721</v>
+        <v>-0.01409032188195835</v>
       </c>
       <c r="D52">
-        <v>-0.01502048246205035</v>
+        <v>-0.0485976539137908</v>
       </c>
       <c r="E52">
-        <v>0.01529944261519884</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02413278166317782</v>
+      </c>
+      <c r="F52">
+        <v>-0.04044204524513853</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1551645130338077</v>
+        <v>0.1734705128224922</v>
       </c>
       <c r="C53">
-        <v>-0.009935678148065891</v>
+        <v>-0.01726775591925324</v>
       </c>
       <c r="D53">
-        <v>0.01357703397887157</v>
+        <v>-0.007150443944815531</v>
       </c>
       <c r="E53">
-        <v>0.01487239500824545</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03507848404122271</v>
+      </c>
+      <c r="F53">
+        <v>-0.07240621488325329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.05035895503285349</v>
+        <v>0.02205969713386687</v>
       </c>
       <c r="C54">
-        <v>0.0007677322758409416</v>
+        <v>-0.01241002975017207</v>
       </c>
       <c r="D54">
-        <v>-0.01085851587779901</v>
+        <v>-0.03311532838806047</v>
       </c>
       <c r="E54">
-        <v>-0.008001578396765508</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01547256508632353</v>
+      </c>
+      <c r="F54">
+        <v>0.004487980066419742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08816286170697438</v>
+        <v>0.1143386799238107</v>
       </c>
       <c r="C55">
-        <v>0.02173607801146313</v>
+        <v>-0.01565458398549929</v>
       </c>
       <c r="D55">
-        <v>0.01238032139296815</v>
+        <v>-0.01050078595030568</v>
       </c>
       <c r="E55">
-        <v>-0.02718261458440816</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03104561593244324</v>
+      </c>
+      <c r="F55">
+        <v>-0.04551765060449645</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1574071269452179</v>
+        <v>0.1773635423338186</v>
       </c>
       <c r="C56">
-        <v>0.0007253631859948485</v>
+        <v>-0.01454096837841264</v>
       </c>
       <c r="D56">
-        <v>-0.01193434707511721</v>
+        <v>-0.005291569953075686</v>
       </c>
       <c r="E56">
-        <v>-0.01146154885823934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0408741556998836</v>
+      </c>
+      <c r="F56">
+        <v>-0.04973383067759037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.03872553884443269</v>
+        <v>0.04629721693009978</v>
       </c>
       <c r="C58">
-        <v>0.004853753110480996</v>
+        <v>-0.001068856485012833</v>
       </c>
       <c r="D58">
-        <v>-0.01394268080224252</v>
+        <v>-0.06783930915484272</v>
       </c>
       <c r="E58">
-        <v>0.02898964709069079</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02414731530345697</v>
+      </c>
+      <c r="F58">
+        <v>0.04129406859442404</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1265128984055287</v>
+        <v>0.1717600780157601</v>
       </c>
       <c r="C59">
-        <v>-0.2423728823904489</v>
+        <v>-0.0184553172956483</v>
       </c>
       <c r="D59">
-        <v>0.1521795693758569</v>
+        <v>0.2222184114147088</v>
       </c>
       <c r="E59">
-        <v>-0.05748335551931967</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04681289052568337</v>
+      </c>
+      <c r="F59">
+        <v>0.03225722037077487</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2772907013590912</v>
+        <v>0.2345679147143712</v>
       </c>
       <c r="C60">
-        <v>0.04044938736829452</v>
+        <v>0.003789016875148017</v>
       </c>
       <c r="D60">
-        <v>-0.02656208301164562</v>
+        <v>-0.04152433367534475</v>
       </c>
       <c r="E60">
-        <v>0.06503619248361281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.010933552228052</v>
+      </c>
+      <c r="F60">
+        <v>0.01838411644160831</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1261108380458961</v>
+        <v>0.08328057927952866</v>
       </c>
       <c r="C61">
-        <v>0.06542136473315657</v>
+        <v>-0.01229501456918208</v>
       </c>
       <c r="D61">
-        <v>-0.04654400612067324</v>
+        <v>-0.1166925472892138</v>
       </c>
       <c r="E61">
-        <v>-0.04171457452203489</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.03975740669934851</v>
+      </c>
+      <c r="F61">
+        <v>-0.007907136022437138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1657768061391055</v>
+        <v>0.1694918282577618</v>
       </c>
       <c r="C62">
-        <v>0.01035860488269833</v>
+        <v>-0.0181316907689225</v>
       </c>
       <c r="D62">
-        <v>-0.01010696765268286</v>
+        <v>-0.01052434125869093</v>
       </c>
       <c r="E62">
-        <v>0.004100939080321934</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03763002000710228</v>
+      </c>
+      <c r="F62">
+        <v>-0.03201290816463712</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.05470566301588035</v>
+        <v>0.04320010188713697</v>
       </c>
       <c r="C63">
-        <v>0.02385818075932046</v>
+        <v>-0.002476920013280998</v>
       </c>
       <c r="D63">
-        <v>-0.007283247302471653</v>
+        <v>-0.0563656602228033</v>
       </c>
       <c r="E63">
-        <v>-0.02462189984653309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.02083648682091102</v>
+      </c>
+      <c r="F63">
+        <v>-0.005751644512126837</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1004124839038035</v>
+        <v>0.1104611915430792</v>
       </c>
       <c r="C64">
-        <v>0.01927250990142299</v>
+        <v>-0.01123654478742353</v>
       </c>
       <c r="D64">
-        <v>-0.02428757943096129</v>
+        <v>-0.04223740108979417</v>
       </c>
       <c r="E64">
-        <v>-0.006971170040194678</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0213468070821297</v>
+      </c>
+      <c r="F64">
+        <v>-0.02824324363168734</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.116531481382334</v>
+        <v>0.1475029667514667</v>
       </c>
       <c r="C65">
-        <v>-0.004737516785024261</v>
+        <v>-0.03146963056192959</v>
       </c>
       <c r="D65">
-        <v>0.01278188412461711</v>
+        <v>0.04173628231728935</v>
       </c>
       <c r="E65">
-        <v>0.002641210070235705</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.002032076250773726</v>
+      </c>
+      <c r="F65">
+        <v>-0.04530135167529974</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1957272496552027</v>
+        <v>0.1276786787422068</v>
       </c>
       <c r="C66">
-        <v>0.0935615859383135</v>
+        <v>-0.0143246880047954</v>
       </c>
       <c r="D66">
-        <v>-0.1078963481593613</v>
+        <v>-0.143068539578665</v>
       </c>
       <c r="E66">
-        <v>-0.06663675965166908</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0680023181051619</v>
+      </c>
+      <c r="F66">
+        <v>-0.02696852189330217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.0756366733671579</v>
+        <v>0.06342767921288719</v>
       </c>
       <c r="C67">
-        <v>0.02080592382828141</v>
+        <v>-0.002805810728607115</v>
       </c>
       <c r="D67">
-        <v>0.003996826018370324</v>
+        <v>-0.05570558755183284</v>
       </c>
       <c r="E67">
-        <v>-0.09340901770031469</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01679322120024367</v>
+      </c>
+      <c r="F67">
+        <v>0.04025673206610866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.05611292095349955</v>
+        <v>0.117296958565282</v>
       </c>
       <c r="C68">
-        <v>-0.2285793904131819</v>
+        <v>-0.02795770710087179</v>
       </c>
       <c r="D68">
-        <v>0.1473657062553511</v>
+        <v>0.2600331054571664</v>
       </c>
       <c r="E68">
-        <v>-0.03917009214055502</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08518802754670182</v>
+      </c>
+      <c r="F68">
+        <v>-0.01774349543238603</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0348071025890166</v>
+        <v>0.03921203985470382</v>
       </c>
       <c r="C69">
-        <v>0.0008723212163755268</v>
+        <v>-0.0008862336279971087</v>
       </c>
       <c r="D69">
-        <v>0.01553197482732645</v>
+        <v>-0.00828859945983341</v>
       </c>
       <c r="E69">
-        <v>-0.02841668237959259</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02393370983780397</v>
+      </c>
+      <c r="F69">
+        <v>0.006034745028728676</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.03267186584929507</v>
+        <v>0.06279243343408226</v>
       </c>
       <c r="C70">
-        <v>0.001967129041619356</v>
+        <v>0.02877690618838355</v>
       </c>
       <c r="D70">
-        <v>0.02671645962694576</v>
+        <v>-0.02874469710503653</v>
       </c>
       <c r="E70">
-        <v>-0.04039599096434627</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.04954249269283614</v>
+      </c>
+      <c r="F70">
+        <v>0.2288670563444243</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.06441945580614694</v>
+        <v>0.1365093714802355</v>
       </c>
       <c r="C71">
-        <v>-0.2492790815573889</v>
+        <v>-0.03261411588466205</v>
       </c>
       <c r="D71">
-        <v>0.1665907308639145</v>
+        <v>0.2740102235268002</v>
       </c>
       <c r="E71">
-        <v>-0.05115472571535187</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09474900865109154</v>
+      </c>
+      <c r="F71">
+        <v>-0.02192984439957374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1299907276047066</v>
+        <v>0.141739143873806</v>
       </c>
       <c r="C72">
-        <v>-0.04044104894317755</v>
+        <v>-0.02505897788526852</v>
       </c>
       <c r="D72">
-        <v>0.001917156235259805</v>
+        <v>-0.0008911581030313286</v>
       </c>
       <c r="E72">
-        <v>-0.01239309365240354</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04214112804873692</v>
+      </c>
+      <c r="F72">
+        <v>-0.03066650730907113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2139199202491069</v>
+        <v>0.2013206946891254</v>
       </c>
       <c r="C73">
-        <v>-0.03946740461912486</v>
+        <v>-0.01196200514346174</v>
       </c>
       <c r="D73">
-        <v>-0.001132567486245974</v>
+        <v>-0.01590122505433756</v>
       </c>
       <c r="E73">
-        <v>-0.03078884472948231</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06646168120708533</v>
+      </c>
+      <c r="F73">
+        <v>-0.02577881366291975</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1135175255540005</v>
+        <v>0.09433168704518849</v>
       </c>
       <c r="C74">
-        <v>0.005522294987270394</v>
+        <v>-0.01240542118203054</v>
       </c>
       <c r="D74">
-        <v>-0.03141767225986457</v>
+        <v>-0.01921517053336498</v>
       </c>
       <c r="E74">
-        <v>-0.0009626061971818909</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04873855713286377</v>
+      </c>
+      <c r="F74">
+        <v>-0.0520712131802378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1363852702126652</v>
+        <v>0.1288458200766225</v>
       </c>
       <c r="C75">
-        <v>0.01383080061140307</v>
+        <v>-0.0267681358358833</v>
       </c>
       <c r="D75">
-        <v>-0.03932723168274579</v>
+        <v>-0.03268805797905112</v>
       </c>
       <c r="E75">
-        <v>-0.007224126833817375</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06102885514658362</v>
+      </c>
+      <c r="F75">
+        <v>-0.01583228214900997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01063791264380411</v>
+        <v>0.00268554287219781</v>
       </c>
       <c r="C76">
-        <v>-0.01154270233484885</v>
+        <v>-0.0006828526613204836</v>
       </c>
       <c r="D76">
-        <v>0.007140841110378317</v>
+        <v>0.001915024256785312</v>
       </c>
       <c r="E76">
-        <v>-0.01012825410656166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0003526916490934533</v>
+      </c>
+      <c r="F76">
+        <v>-0.003516284459951016</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.09099170025339749</v>
+        <v>0.07995626433172165</v>
       </c>
       <c r="C77">
-        <v>0.08077642367003683</v>
+        <v>-0.008346865685375753</v>
       </c>
       <c r="D77">
-        <v>-0.06403950312938905</v>
+        <v>-0.1202059335269596</v>
       </c>
       <c r="E77">
-        <v>0.03302932314190426</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04054270498215962</v>
+      </c>
+      <c r="F77">
+        <v>-0.03218966369272944</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.123035342071329</v>
+        <v>0.1033980141767362</v>
       </c>
       <c r="C78">
-        <v>-0.02226434265667841</v>
+        <v>-0.03967969514583339</v>
       </c>
       <c r="D78">
-        <v>-0.1271605062962918</v>
+        <v>-0.1147818543034682</v>
       </c>
       <c r="E78">
-        <v>-0.2349499976912602</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07890318296481541</v>
+      </c>
+      <c r="F78">
+        <v>-0.05747515985484739</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1442136346360224</v>
+        <v>0.1639857494261365</v>
       </c>
       <c r="C79">
-        <v>-0.002301100350756591</v>
+        <v>-0.0209266316865421</v>
       </c>
       <c r="D79">
-        <v>-0.05047162328080342</v>
+        <v>-0.01848256661668073</v>
       </c>
       <c r="E79">
-        <v>0.01674618954399917</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05010392113521781</v>
+      </c>
+      <c r="F79">
+        <v>-0.008054095328385528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.09154998869284549</v>
+        <v>0.08106842763925086</v>
       </c>
       <c r="C80">
-        <v>0.05639897364578496</v>
+        <v>0.001116212152751428</v>
       </c>
       <c r="D80">
-        <v>-0.01690601313774335</v>
+        <v>-0.0584177101289106</v>
       </c>
       <c r="E80">
-        <v>-0.05454029925242623</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.0350248106791049</v>
+      </c>
+      <c r="F80">
+        <v>0.03024508929720014</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1578420878361281</v>
+        <v>0.1230025008390581</v>
       </c>
       <c r="C81">
-        <v>0.02489489757308016</v>
+        <v>-0.03078418606428268</v>
       </c>
       <c r="D81">
-        <v>-0.05359178074527735</v>
+        <v>-0.01656845780884805</v>
       </c>
       <c r="E81">
-        <v>-0.02453430385429706</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.0609905423868417</v>
+      </c>
+      <c r="F81">
+        <v>-0.01196691156543026</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.175089303969678</v>
+        <v>0.1645548942462729</v>
       </c>
       <c r="C82">
-        <v>0.03906467727675442</v>
+        <v>-0.02303275905268712</v>
       </c>
       <c r="D82">
-        <v>-0.01830544334749527</v>
+        <v>-0.007240634922051284</v>
       </c>
       <c r="E82">
-        <v>-0.01315068864189774</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0338692515460532</v>
+      </c>
+      <c r="F82">
+        <v>-0.07447880928995425</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08457279874580317</v>
+        <v>0.06184561228788558</v>
       </c>
       <c r="C83">
-        <v>0.02223941917915522</v>
+        <v>-0.003128334246599482</v>
       </c>
       <c r="D83">
-        <v>-0.004653042567568463</v>
+        <v>-0.04927052393087877</v>
       </c>
       <c r="E83">
-        <v>0.06542676008668291</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005167505350666746</v>
+      </c>
+      <c r="F83">
+        <v>0.04015367665721376</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07151345581321326</v>
+        <v>0.05838856812744724</v>
       </c>
       <c r="C84">
-        <v>0.01201811294167888</v>
+        <v>-0.01081281108675006</v>
       </c>
       <c r="D84">
-        <v>-0.003503739972358746</v>
+        <v>-0.0661563636487796</v>
       </c>
       <c r="E84">
-        <v>-0.001200222126976327</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.006114427066546317</v>
+      </c>
+      <c r="F84">
+        <v>-0.0079237085454719</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1238177633570289</v>
+        <v>0.1381165733045464</v>
       </c>
       <c r="C85">
-        <v>-0.004483379598914688</v>
+        <v>-0.02658866871539211</v>
       </c>
       <c r="D85">
-        <v>-0.01381342423402445</v>
+        <v>-0.01262946154605797</v>
       </c>
       <c r="E85">
-        <v>0.0110852843715389</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04139638921683465</v>
+      </c>
+      <c r="F85">
+        <v>-0.0462516887885065</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1087850074214554</v>
+        <v>0.09608774905013867</v>
       </c>
       <c r="C86">
-        <v>-0.2055051219003056</v>
+        <v>0.005707425711828396</v>
       </c>
       <c r="D86">
-        <v>-0.231613440215074</v>
+        <v>-0.03698362411629985</v>
       </c>
       <c r="E86">
-        <v>0.8863058901511719</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1611552713885682</v>
+      </c>
+      <c r="F86">
+        <v>0.9009607373706935</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1142629054531783</v>
+        <v>0.09546265981227203</v>
       </c>
       <c r="C87">
-        <v>0.1023720141287829</v>
+        <v>-0.02178077037703901</v>
       </c>
       <c r="D87">
-        <v>0.01906952733384601</v>
+        <v>-0.09230750048445584</v>
       </c>
       <c r="E87">
-        <v>0.01013342158240496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05331678286420628</v>
+      </c>
+      <c r="F87">
+        <v>-0.06890760175042046</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05053050689590478</v>
+        <v>0.06104180137135647</v>
       </c>
       <c r="C88">
-        <v>0.01116218868562937</v>
+        <v>-0.002357900337518222</v>
       </c>
       <c r="D88">
-        <v>-0.03122276090625486</v>
+        <v>-0.05057314938719505</v>
       </c>
       <c r="E88">
-        <v>-0.03901158859703738</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02585983155008995</v>
+      </c>
+      <c r="F88">
+        <v>-0.009969220508746634</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.09740673553514441</v>
+        <v>0.1348996819772697</v>
       </c>
       <c r="C89">
-        <v>-0.3122417591922797</v>
+        <v>-0.01025227242864409</v>
       </c>
       <c r="D89">
-        <v>0.2052969321593547</v>
+        <v>0.251574742729396</v>
       </c>
       <c r="E89">
-        <v>-0.02354939342281385</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08895935824966969</v>
+      </c>
+      <c r="F89">
+        <v>-0.003951374467856879</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.06990352256929634</v>
+        <v>0.1486388123553133</v>
       </c>
       <c r="C90">
-        <v>-0.2572279900622132</v>
+        <v>-0.02835214545244276</v>
       </c>
       <c r="D90">
-        <v>0.1664964356908435</v>
+        <v>0.2668446951916725</v>
       </c>
       <c r="E90">
-        <v>-0.03589522156469121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1092900990514186</v>
+      </c>
+      <c r="F90">
+        <v>-0.008868677688514345</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.09496096765824906</v>
+        <v>0.1197644655269878</v>
       </c>
       <c r="C91">
-        <v>0.004835714700334822</v>
+        <v>-0.01733048658101363</v>
       </c>
       <c r="D91">
-        <v>-0.0259975660163739</v>
+        <v>0.01030190387266193</v>
       </c>
       <c r="E91">
-        <v>0.01387587852238744</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05777714773873261</v>
+      </c>
+      <c r="F91">
+        <v>0.01067752092116566</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.08749893914123832</v>
+        <v>0.1485670589004129</v>
       </c>
       <c r="C92">
-        <v>-0.2725915823551373</v>
+        <v>-0.02025105980759682</v>
       </c>
       <c r="D92">
-        <v>0.200466266837623</v>
+        <v>0.2910050757002602</v>
       </c>
       <c r="E92">
-        <v>-0.02048550324599703</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1037959413252093</v>
+      </c>
+      <c r="F92">
+        <v>0.0007627916003741096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.07426526855128741</v>
+        <v>0.151621786053262</v>
       </c>
       <c r="C93">
-        <v>-0.2838495919439079</v>
+        <v>-0.02442896598747945</v>
       </c>
       <c r="D93">
-        <v>0.183595178918456</v>
+        <v>0.2661669151509867</v>
       </c>
       <c r="E93">
-        <v>-0.02803696240289675</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07613180427551515</v>
+      </c>
+      <c r="F93">
+        <v>-0.009864726298507789</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1592065523533326</v>
+        <v>0.1318639976880992</v>
       </c>
       <c r="C94">
-        <v>0.008028801660492276</v>
+        <v>-0.02386428161452926</v>
       </c>
       <c r="D94">
-        <v>-0.03464248588363359</v>
+        <v>-0.04387352526992089</v>
       </c>
       <c r="E94">
-        <v>-0.06184388103829232</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06115155992606647</v>
+      </c>
+      <c r="F94">
+        <v>-0.03370630131144797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.126572809580214</v>
+        <v>0.1255791160277152</v>
       </c>
       <c r="C95">
-        <v>0.01772518210151675</v>
+        <v>-0.00443839027086117</v>
       </c>
       <c r="D95">
-        <v>-0.04338687594730105</v>
+        <v>-0.09364764097642711</v>
       </c>
       <c r="E95">
-        <v>-0.04116193475013409</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.0463883727987734</v>
+      </c>
+      <c r="F95">
+        <v>0.01204840658004131</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01575253796789975</v>
+        <v>0.100286317757911</v>
       </c>
       <c r="C96">
-        <v>0.001066625190254373</v>
+        <v>0.9885251171017144</v>
       </c>
       <c r="D96">
-        <v>-0.002425514927568537</v>
+        <v>0.03810965789649421</v>
       </c>
       <c r="E96">
-        <v>0.003622200950888066</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05844962107475574</v>
+      </c>
+      <c r="F96">
+        <v>-0.04187768718041452</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1776520338847249</v>
+        <v>0.1897292947541969</v>
       </c>
       <c r="C97">
-        <v>-0.03082450732020404</v>
+        <v>0.009620988366499756</v>
       </c>
       <c r="D97">
-        <v>-0.05303959193474935</v>
+        <v>0.01484728875572668</v>
       </c>
       <c r="E97">
-        <v>-0.02409498339747993</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.00851773157309935</v>
+      </c>
+      <c r="F97">
+        <v>0.09934460359883014</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2201811293551841</v>
+        <v>0.2058437391158068</v>
       </c>
       <c r="C98">
-        <v>-0.01970784927782935</v>
+        <v>-0.007378174693754853</v>
       </c>
       <c r="D98">
-        <v>0.09559064534096064</v>
+        <v>-0.008156258677279551</v>
       </c>
       <c r="E98">
-        <v>0.1194082018462386</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09624974908452529</v>
+      </c>
+      <c r="F98">
+        <v>0.09457838446523581</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.04992480592517878</v>
+        <v>0.05577108668009833</v>
       </c>
       <c r="C99">
-        <v>-0.01728178904706528</v>
+        <v>0.004339200137807282</v>
       </c>
       <c r="D99">
-        <v>-0.01329950657664652</v>
+        <v>-0.03682045411330302</v>
       </c>
       <c r="E99">
-        <v>-0.0517761289162184</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.02409667334751654</v>
+      </c>
+      <c r="F99">
+        <v>0.0007371143261854432</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1275768770445382</v>
+        <v>0.1243255003934434</v>
       </c>
       <c r="C100">
-        <v>0.5163257028891979</v>
+        <v>0.05303900399748174</v>
       </c>
       <c r="D100">
-        <v>0.761158371031357</v>
+        <v>-0.3446308789364461</v>
       </c>
       <c r="E100">
-        <v>0.2365087115016266</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8943588162786067</v>
+      </c>
+      <c r="F100">
+        <v>0.08488493810230563</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03106488775257302</v>
+        <v>0.02657072437985422</v>
       </c>
       <c r="C101">
-        <v>0.008843153654872107</v>
+        <v>-0.008124827912573938</v>
       </c>
       <c r="D101">
-        <v>0.00355354415457622</v>
+        <v>-0.03249322771454891</v>
       </c>
       <c r="E101">
-        <v>-0.009592060990368344</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01070450955756996</v>
+      </c>
+      <c r="F101">
+        <v>0.01442730274033136</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
